--- a/output/only_primer/two_plasmid_system_result/two_plasmid_design_F_Result.xlsx
+++ b/output/only_primer/two_plasmid_system_result/two_plasmid_design_F_Result.xlsx
@@ -20,81 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PRIMER_LEFT_EXPLAIN</t>
-  </si>
-  <si>
-    <t>PRIMER_RIGHT_EXPLAIN</t>
-  </si>
-  <si>
-    <t>PRIMER_PAIR_EXPLAIN</t>
-  </si>
-  <si>
-    <t>PRIMER_LEFT_NUM_RETURNED</t>
-  </si>
-  <si>
-    <t>PRIMER_RIGHT_NUM_RETURNED</t>
-  </si>
-  <si>
-    <t>PRIMER_INTERNAL_NUM_RETURNED</t>
-  </si>
-  <si>
-    <t>PRIMER_PAIR_NUM_RETURNED</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
   <si>
     <t>No.</t>
-  </si>
-  <si>
-    <t>Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092;uha</t>
-  </si>
-  <si>
-    <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875;uha</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 2, ok 9</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 8, high hairpin stability 3, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 2, high hairpin stability 9, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 7, ok 4</t>
-  </si>
-  <si>
-    <t>considered 0, ok 0</t>
-  </si>
-  <si>
-    <t>Cgl0006_1176_G_A_sub;BA000036.3:6529-6530;dha</t>
-  </si>
-  <si>
-    <t>Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092;dha</t>
-  </si>
-  <si>
-    <t>Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020;dha</t>
-  </si>
-  <si>
-    <t>Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378;dha</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 1, ok 10</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 11, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 7, high hairpin stability 4, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, low tm 5, high hairpin stability 6, ok 0</t>
-  </si>
-  <si>
-    <t>considered 11, high hairpin stability 11, ok 0</t>
   </si>
 </sst>
 </file>
@@ -452,96 +380,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -552,154 +398,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -718,7 +424,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +442,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +460,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +478,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
